--- a/src/test/resources/testdata/VOLDP1.xlsx
+++ b/src/test/resources/testdata/VOLDP1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4569F6-11C8-491D-8BB7-D46F0F8918D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30CFABA-A4EF-44A6-8AD7-7347EBA85097}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,9 +115,6 @@
     <t>Quality</t>
   </si>
   <si>
-    <t>07302023</t>
-  </si>
-  <si>
     <t>3 Tab Composition Shingle</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Annual</t>
+  </si>
+  <si>
+    <t>08302023</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,7 +541,7 @@
         <v>33837</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>18</v>
@@ -550,7 +550,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>20</v>
@@ -562,16 +562,16 @@
         <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N2" s="6">
         <v>2022</v>
       </c>
       <c r="O2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -591,7 +591,7 @@
         <v>27</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>18</v>
@@ -600,7 +600,7 @@
         <v>19</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>28</v>
@@ -612,16 +612,16 @@
         <v>22</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" s="6">
         <v>2022</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/VOLDP1.xlsx
+++ b/src/test/resources/testdata/VOLDP1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30CFABA-A4EF-44A6-8AD7-7347EBA85097}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FA1A4F-CAA5-42FF-B843-93689DB48CBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="37">
   <si>
     <t>FirstName</t>
   </si>
@@ -127,7 +127,10 @@
     <t>Annual</t>
   </si>
   <si>
-    <t>08302023</t>
+    <t>11012023</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -466,13 +469,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
@@ -564,8 +572,8 @@
       <c r="M2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="6">
-        <v>2022</v>
+      <c r="N2" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>31</v>
@@ -614,14 +622,264 @@
       <c r="M3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="6">
-        <v>2022</v>
+      <c r="N3" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5">
+        <v>33837</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5">
+        <v>33837</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5">
+        <v>33837</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/VOLDP1.xlsx
+++ b/src/test/resources/testdata/VOLDP1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FA1A4F-CAA5-42FF-B843-93689DB48CBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0A607C-4AF5-4CC9-9E6A-A9ED7F91F394}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="36">
   <si>
     <t>FirstName</t>
   </si>
@@ -121,16 +121,13 @@
     <t>Economy</t>
   </si>
   <si>
-    <t>Standard</t>
-  </si>
-  <si>
     <t>Annual</t>
   </si>
   <si>
-    <t>11012023</t>
-  </si>
-  <si>
-    <t>2023</t>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>04012023</t>
   </si>
 </sst>
 </file>
@@ -469,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,10 +567,10 @@
         <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>31</v>
@@ -620,16 +617,16 @@
         <v>22</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -670,10 +667,10 @@
         <v>22</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>31</v>
@@ -720,16 +717,16 @@
         <v>22</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>31</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -770,10 +767,10 @@
         <v>22</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>31</v>
@@ -820,16 +817,16 @@
         <v>22</v>
       </c>
       <c r="M7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>31</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -870,15 +867,165 @@
         <v>22</v>
       </c>
       <c r="M8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>31</v>
       </c>
       <c r="P8" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5">
+        <v>33837</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>32</v>
       </c>
     </row>

--- a/src/test/resources/testdata/VOLDP1.xlsx
+++ b/src/test/resources/testdata/VOLDP1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20404"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0A607C-4AF5-4CC9-9E6A-A9ED7F91F394}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F49B3FB-AD77-4D44-883C-CEE087E73BCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>FirstName</t>
   </si>
@@ -466,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,356 +679,6 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5">
-        <v>33837</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5">
-        <v>33837</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="5">
-        <v>33837</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testdata/VOLDP1.xlsx
+++ b/src/test/resources/testdata/VOLDP1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F49B3FB-AD77-4D44-883C-CEE087E73BCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13DFDE9-2BA3-4D28-878F-9FCAC82294C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
   <si>
     <t>FirstName</t>
   </si>
@@ -124,10 +124,16 @@
     <t>Annual</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>04012023</t>
+    <t>Producer</t>
+  </si>
+  <si>
+    <t>01182024</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>AG1730A1</t>
   </si>
 </sst>
 </file>
@@ -466,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,9 +483,11 @@
     <col min="2" max="2" width="17.109375" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" customWidth="1"/>
     <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,8 +536,11 @@
       <c r="P1" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="Q1" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -570,7 +581,7 @@
         <v>33</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>31</v>
@@ -578,8 +589,11 @@
       <c r="P2" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="Q2" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -620,7 +634,7 @@
         <v>33</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>31</v>
@@ -628,8 +642,11 @@
       <c r="P3" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="Q3" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -670,13 +687,69 @@
         <v>33</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>31</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>32</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5">
+        <v>33837</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
